--- a/ASVS-checklist-en.xlsx
+++ b/ASVS-checklist-en.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/n3567/Documents/Personal/repository/owasp-asvs-checklist/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schm01\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9733AB3-B93D-4051-9BD0-9DC4F645C53F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11700" yWindow="-16060" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13965" tabRatio="758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASVS Results" sheetId="1" r:id="rId1"/>
@@ -30,10 +31,15 @@
     <sheet name="Web Services" sheetId="16" r:id="rId16"/>
     <sheet name="Configuration" sheetId="17" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1303,8 +1309,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1542,9 +1548,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1620,14 +1626,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1639,8 +1648,17 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1725,56 +1743,61 @@
                 <c:formatCode>#,##0.00_);\(#,##0.00\)</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D315-40F7-887A-954011AD5958}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1799,6 +1822,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="-1361787184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -1818,6 +1851,16 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="-1361412624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1825,8 +1868,17 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1834,7 +1886,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1857,7 +1909,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2196,23 +2254,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="49.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="49.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="37" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2229,12 +2288,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="18">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5">
-        <f>0+COUNTIF(Architecture!D2:D11,"Valid")</f>
+        <f>0+COUNTIF(Architecture!D2:D12,"Valid")</f>
         <v>0</v>
       </c>
       <c r="C2" s="8">
@@ -2247,12 +2306,12 @@
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="18">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5">
-        <f>COUNTIF(Authentication!D2:D26,"Valid")</f>
+        <f>COUNTIF(Authentication!D2:D27,"Valid")</f>
         <v>0</v>
       </c>
       <c r="C3" s="8">
@@ -2265,7 +2324,7 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="18">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -2283,7 +2342,7 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="18">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -2301,7 +2360,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="18">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2319,7 +2378,7 @@
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="18">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -2338,12 +2397,12 @@
       <c r="E7" s="7"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="18">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="8">
-        <f>COUNTIF('Error Handling and Logging'!D2:D13,"Valid")</f>
+        <f>COUNTIF('Error Handling and Logging'!D2:D14,"Valid")</f>
         <v>0</v>
       </c>
       <c r="C8" s="8">
@@ -2356,7 +2415,7 @@
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="18">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -2374,7 +2433,7 @@
       </c>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="18">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -2392,7 +2451,7 @@
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="18">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -2410,7 +2469,7 @@
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="18">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -2428,7 +2487,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="18">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
@@ -2446,7 +2505,7 @@
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="18">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -2464,7 +2523,7 @@
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="18">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -2482,7 +2541,7 @@
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="18">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -2500,12 +2559,12 @@
       </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="18">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="5">
-        <f>COUNTIF(Configuration!D2:D10,"Valid")</f>
+        <f>COUNTIF(Configuration!D2:D11,"Valid")</f>
         <v>0</v>
       </c>
       <c r="C17" s="8">
@@ -2531,23 +2590,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="88.83203125" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="88.85546875" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="21" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="21" customFormat="1" ht="36">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
@@ -2570,7 +2629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="25.5">
       <c r="A2" s="7" t="s">
         <v>245</v>
       </c>
@@ -2585,7 +2644,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="38.25">
       <c r="A3" s="7" t="s">
         <v>247</v>
       </c>
@@ -2600,7 +2659,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>249</v>
       </c>
@@ -2615,7 +2674,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="25.5">
       <c r="A5" s="7" t="s">
         <v>251</v>
       </c>
@@ -2630,7 +2689,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="25.5">
       <c r="A6" s="7" t="s">
         <v>253</v>
       </c>
@@ -2645,7 +2704,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="25.5">
       <c r="A7" s="7" t="s">
         <v>255</v>
       </c>
@@ -2660,7 +2719,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="25.5">
       <c r="A8" s="7" t="s">
         <v>257</v>
       </c>
@@ -2675,7 +2734,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="25.5">
       <c r="A9" s="7" t="s">
         <v>259</v>
       </c>
@@ -2690,7 +2749,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="25.5">
       <c r="A10" s="7" t="s">
         <v>261</v>
       </c>
@@ -2705,7 +2764,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="7" t="s">
         <v>263</v>
       </c>
@@ -2720,7 +2779,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="25.5">
       <c r="A12" s="7" t="s">
         <v>265</v>
       </c>
@@ -2735,7 +2794,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="25.5">
       <c r="A13" s="7" t="s">
         <v>266</v>
       </c>
@@ -2750,7 +2809,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="25.5">
       <c r="A14" s="7" t="s">
         <v>268</v>
       </c>
@@ -2768,7 +2827,7 @@
   </sheetData>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D14">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D14" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2782,23 +2841,23 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="20"/>
-    <col min="3" max="3" width="87.5" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="20"/>
+    <col min="3" max="3" width="87.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="21" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="21" customFormat="1" ht="36">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
@@ -2821,7 +2880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="38.25">
       <c r="A2" s="7" t="s">
         <v>270</v>
       </c>
@@ -2836,7 +2895,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="25.5">
       <c r="A3" s="7" t="s">
         <v>272</v>
       </c>
@@ -2851,7 +2910,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="25.5">
       <c r="A4" s="7" t="s">
         <v>274</v>
       </c>
@@ -2866,7 +2925,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="25.5">
       <c r="A5" s="7" t="s">
         <v>276</v>
       </c>
@@ -2881,7 +2940,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="25.5">
       <c r="A6" s="7" t="s">
         <v>277</v>
       </c>
@@ -2896,7 +2955,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="25.5">
       <c r="A7" s="7" t="s">
         <v>279</v>
       </c>
@@ -2911,7 +2970,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="25.5">
       <c r="A8" s="7" t="s">
         <v>281</v>
       </c>
@@ -2926,7 +2985,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>282</v>
       </c>
@@ -2944,7 +3003,7 @@
   </sheetData>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D9">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D9" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2958,23 +3017,23 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="20"/>
-    <col min="3" max="3" width="88.5" customWidth="1"/>
-    <col min="5" max="5" width="35.83203125" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="20"/>
+    <col min="3" max="3" width="88.42578125" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="21" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="21" customFormat="1" ht="36">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
@@ -2997,7 +3056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="25.5">
       <c r="A2" s="7" t="s">
         <v>284</v>
       </c>
@@ -3012,7 +3071,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="38.25">
       <c r="A3" s="7" t="s">
         <v>286</v>
       </c>
@@ -3030,7 +3089,7 @@
   </sheetData>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D3">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D3" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3044,24 +3103,24 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="20"/>
-    <col min="3" max="3" width="71.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" customWidth="1"/>
-    <col min="6" max="6" width="34.5" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="20"/>
+    <col min="3" max="3" width="71.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="21" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="21" customFormat="1" ht="36">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
@@ -3084,7 +3143,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="51">
       <c r="A2" s="7" t="s">
         <v>287</v>
       </c>
@@ -3099,7 +3158,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="38.25">
       <c r="A3" s="7" t="s">
         <v>289</v>
       </c>
@@ -3117,7 +3176,7 @@
   </sheetData>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D3">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D3" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3131,24 +3190,24 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="20"/>
-    <col min="3" max="3" width="78.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="31.5" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" customWidth="1"/>
-    <col min="7" max="7" width="31.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="20"/>
+    <col min="3" max="3" width="78.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="21" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="21" customFormat="1" ht="36">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
@@ -3171,7 +3230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="27.75">
       <c r="A2" s="7" t="s">
         <v>291</v>
       </c>
@@ -3186,7 +3245,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="38.25">
       <c r="A3" s="7" t="s">
         <v>293</v>
       </c>
@@ -3201,7 +3260,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="25.5">
       <c r="A4" s="7" t="s">
         <v>295</v>
       </c>
@@ -3216,7 +3275,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="25.5">
       <c r="A5" s="7" t="s">
         <v>297</v>
       </c>
@@ -3231,7 +3290,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="25.5">
       <c r="A6" s="7" t="s">
         <v>299</v>
       </c>
@@ -3246,7 +3305,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="25.5">
       <c r="A7" s="7" t="s">
         <v>301</v>
       </c>
@@ -3261,7 +3320,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="25.5">
       <c r="A8" s="7" t="s">
         <v>303</v>
       </c>
@@ -3276,7 +3335,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="25.5">
       <c r="A9" s="7" t="s">
         <v>305</v>
       </c>
@@ -3291,7 +3350,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="25.5">
       <c r="A10" s="7" t="s">
         <v>307</v>
       </c>
@@ -3309,7 +3368,7 @@
   </sheetData>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D10">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D10" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3323,23 +3382,23 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="20"/>
+    <col min="2" max="2" width="8.85546875" style="20"/>
     <col min="3" max="3" width="90" customWidth="1"/>
-    <col min="5" max="5" width="29.5" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" customWidth="1"/>
-    <col min="7" max="7" width="32.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="21" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="21" customFormat="1" ht="36">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
@@ -3362,7 +3421,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="25.5">
       <c r="A2" s="7" t="s">
         <v>309</v>
       </c>
@@ -3377,7 +3436,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="25.5">
       <c r="A3" s="7" t="s">
         <v>311</v>
       </c>
@@ -3392,7 +3451,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="25.5">
       <c r="A4" s="7" t="s">
         <v>313</v>
       </c>
@@ -3407,7 +3466,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
         <v>315</v>
       </c>
@@ -3422,7 +3481,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="25.5">
       <c r="A6" s="7" t="s">
         <v>317</v>
       </c>
@@ -3437,7 +3496,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="7" t="s">
         <v>319</v>
       </c>
@@ -3452,7 +3511,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="7" t="s">
         <v>321</v>
       </c>
@@ -3467,7 +3526,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="25.5">
       <c r="A9" s="7" t="s">
         <v>323</v>
       </c>
@@ -3482,7 +3541,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="25.5">
       <c r="A10" s="7" t="s">
         <v>325</v>
       </c>
@@ -3497,7 +3556,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="25.5">
       <c r="A11" s="7" t="s">
         <v>327</v>
       </c>
@@ -3512,7 +3571,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="7" t="s">
         <v>328</v>
       </c>
@@ -3530,7 +3589,7 @@
   </sheetData>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D12">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D12" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3544,22 +3603,22 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="3" max="3" width="84.5" customWidth="1"/>
-    <col min="5" max="5" width="35.5" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" customWidth="1"/>
-    <col min="7" max="7" width="37.83203125" customWidth="1"/>
+    <col min="3" max="3" width="84.42578125" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="21" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="21" customFormat="1" ht="36">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
@@ -3582,7 +3641,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
         <v>329</v>
       </c>
@@ -3597,7 +3656,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="25.5">
       <c r="A3" s="7" t="s">
         <v>331</v>
       </c>
@@ -3612,7 +3671,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>333</v>
       </c>
@@ -3627,7 +3686,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
         <v>335</v>
       </c>
@@ -3642,7 +3701,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="25.5">
       <c r="A6" s="7" t="s">
         <v>337</v>
       </c>
@@ -3657,7 +3716,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="25.5">
       <c r="A7" s="7" t="s">
         <v>338</v>
       </c>
@@ -3672,7 +3731,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="38.25">
       <c r="A8" s="7" t="s">
         <v>340</v>
       </c>
@@ -3687,7 +3746,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="25.5">
       <c r="A9" s="7" t="s">
         <v>341</v>
       </c>
@@ -3702,7 +3761,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="25.5">
       <c r="A10" s="7" t="s">
         <v>343</v>
       </c>
@@ -3717,7 +3776,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="7" t="s">
         <v>380</v>
       </c>
@@ -3735,7 +3794,7 @@
   </sheetData>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D11">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D11" xr:uid="{00000000-0002-0000-0F00-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3749,23 +3808,23 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="3" max="3" width="88.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="88.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="21" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="21" customFormat="1" ht="36">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
@@ -3788,7 +3847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="38.25">
       <c r="A2" s="7" t="s">
         <v>345</v>
       </c>
@@ -3803,7 +3862,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="38.25">
       <c r="A3" s="7" t="s">
         <v>347</v>
       </c>
@@ -3818,7 +3877,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="25.5">
       <c r="A4" s="7" t="s">
         <v>349</v>
       </c>
@@ -3833,7 +3892,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="25.5">
       <c r="A5" s="7" t="s">
         <v>351</v>
       </c>
@@ -3848,7 +3907,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="7" t="s">
         <v>353</v>
       </c>
@@ -3863,7 +3922,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="25.5">
       <c r="A7" s="7" t="s">
         <v>355</v>
       </c>
@@ -3878,7 +3937,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="7" t="s">
         <v>357</v>
       </c>
@@ -3893,7 +3952,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>359</v>
       </c>
@@ -3908,7 +3967,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="25.5">
       <c r="A10" s="7" t="s">
         <v>361</v>
       </c>
@@ -3923,7 +3982,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="25.5">
       <c r="A11" s="7" t="s">
         <v>381</v>
       </c>
@@ -3941,7 +4000,7 @@
   </sheetData>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D11">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D11" xr:uid="{00000000-0002-0000-1000-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3955,23 +4014,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="3" max="3" width="63.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" customWidth="1"/>
-    <col min="6" max="6" width="31.6640625" customWidth="1"/>
-    <col min="7" max="7" width="41.6640625" customWidth="1"/>
+    <col min="3" max="3" width="63.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" customWidth="1"/>
+    <col min="7" max="7" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="27.6" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
@@ -3994,7 +4053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="25.5">
       <c r="A2" s="12" t="s">
         <v>28</v>
       </c>
@@ -4009,7 +4068,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="38.25">
       <c r="A3" s="12" t="s">
         <v>30</v>
       </c>
@@ -4024,7 +4083,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>32</v>
       </c>
@@ -4039,7 +4098,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="25.5">
       <c r="A5" s="12" t="s">
         <v>34</v>
       </c>
@@ -4054,7 +4113,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="38.25">
       <c r="A6" s="12" t="s">
         <v>36</v>
       </c>
@@ -4069,7 +4128,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="38.25">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -4084,7 +4143,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="25.5">
       <c r="A8" s="12" t="s">
         <v>40</v>
       </c>
@@ -4099,7 +4158,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="38.25">
       <c r="A9" s="12" t="s">
         <v>42</v>
       </c>
@@ -4114,7 +4173,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="38.25">
       <c r="A10" s="12" t="s">
         <v>44</v>
       </c>
@@ -4129,7 +4188,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="25.5">
       <c r="A11" s="12" t="s">
         <v>46</v>
       </c>
@@ -4144,7 +4203,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="38.25">
       <c r="A12" s="12" t="s">
         <v>365</v>
       </c>
@@ -4162,7 +4221,7 @@
   </sheetData>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D12">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D12" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4176,24 +4235,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="20"/>
+    <col min="2" max="2" width="8.85546875" style="20"/>
     <col min="3" max="3" width="73" customWidth="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" customWidth="1"/>
-    <col min="6" max="6" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="21" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="21" customFormat="1" ht="36">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
@@ -4216,7 +4275,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="25.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="25.35" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>48</v>
       </c>
@@ -4231,7 +4290,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="38.25">
       <c r="A3" s="12" t="s">
         <v>50</v>
       </c>
@@ -4246,7 +4305,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>51</v>
       </c>
@@ -4261,7 +4320,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="12" t="s">
         <v>53</v>
       </c>
@@ -4276,7 +4335,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="38.25">
       <c r="A6" s="12" t="s">
         <v>55</v>
       </c>
@@ -4291,7 +4350,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="38.25">
       <c r="A7" s="12" t="s">
         <v>56</v>
       </c>
@@ -4306,7 +4365,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="25.5">
       <c r="A8" s="12" t="s">
         <v>58</v>
       </c>
@@ -4321,7 +4380,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="38.25">
       <c r="A9" s="12" t="s">
         <v>60</v>
       </c>
@@ -4336,7 +4395,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="25.5">
       <c r="A10" s="12" t="s">
         <v>61</v>
       </c>
@@ -4351,7 +4410,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="38.25">
       <c r="A11" s="12" t="s">
         <v>62</v>
       </c>
@@ -4366,7 +4425,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="25.5">
       <c r="A12" s="12" t="s">
         <v>64</v>
       </c>
@@ -4381,7 +4440,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="25.5">
       <c r="A13" s="12" t="s">
         <v>66</v>
       </c>
@@ -4396,7 +4455,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="25.5">
       <c r="A14" s="12" t="s">
         <v>68</v>
       </c>
@@ -4411,7 +4470,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="25.5">
       <c r="A15" s="12" t="s">
         <v>70</v>
       </c>
@@ -4426,7 +4485,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="25.5">
       <c r="A16" s="12" t="s">
         <v>71</v>
       </c>
@@ -4441,7 +4500,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="38.25">
       <c r="A17" s="12" t="s">
         <v>73</v>
       </c>
@@ -4456,7 +4515,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="38.25">
       <c r="A18" s="12" t="s">
         <v>74</v>
       </c>
@@ -4471,7 +4530,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="38.25">
       <c r="A19" s="12" t="s">
         <v>76</v>
       </c>
@@ -4486,7 +4545,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="25.5">
       <c r="A20" s="12" t="s">
         <v>77</v>
       </c>
@@ -4501,7 +4560,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="25.5">
       <c r="A21" s="12" t="s">
         <v>78</v>
       </c>
@@ -4516,7 +4575,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="25.5">
       <c r="A22" s="12" t="s">
         <v>79</v>
       </c>
@@ -4531,7 +4590,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="25.5">
       <c r="A23" s="12" t="s">
         <v>81</v>
       </c>
@@ -4546,7 +4605,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="25.5">
       <c r="A24" s="12" t="s">
         <v>83</v>
       </c>
@@ -4561,7 +4620,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="38.25">
       <c r="A25" s="12" t="s">
         <v>85</v>
       </c>
@@ -4576,7 +4635,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26" s="12" t="s">
         <v>87</v>
       </c>
@@ -4591,7 +4650,7 @@
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="38.25">
       <c r="A27" s="12" t="s">
         <v>367</v>
       </c>
@@ -4609,7 +4668,7 @@
   </sheetData>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D27">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D27" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4623,23 +4682,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="20" customWidth="1"/>
     <col min="3" max="3" width="70" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.83203125" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="21" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="21" customFormat="1" ht="36">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
@@ -4662,7 +4721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="25.5">
       <c r="A2" s="7" t="s">
         <v>89</v>
       </c>
@@ -4677,7 +4736,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
         <v>91</v>
       </c>
@@ -4692,7 +4751,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>93</v>
       </c>
@@ -4707,7 +4766,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="25.5">
       <c r="A5" s="7" t="s">
         <v>95</v>
       </c>
@@ -4722,7 +4781,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="25.5">
       <c r="A6" s="7" t="s">
         <v>97</v>
       </c>
@@ -4737,7 +4796,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="38.25">
       <c r="A7" s="7" t="s">
         <v>99</v>
       </c>
@@ -4752,7 +4811,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="25.5">
       <c r="A8" s="7" t="s">
         <v>101</v>
       </c>
@@ -4767,7 +4826,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="25.5">
       <c r="A9" s="7" t="s">
         <v>103</v>
       </c>
@@ -4782,7 +4841,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="25.5">
       <c r="A10" s="7" t="s">
         <v>105</v>
       </c>
@@ -4797,7 +4856,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="38.25">
       <c r="A11" s="7" t="s">
         <v>107</v>
       </c>
@@ -4812,7 +4871,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="7" t="s">
         <v>109</v>
       </c>
@@ -4827,7 +4886,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="25.5">
       <c r="A13" s="7" t="s">
         <v>111</v>
       </c>
@@ -4842,7 +4901,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="25.5">
       <c r="A14" s="7" t="s">
         <v>113</v>
       </c>
@@ -4860,7 +4919,7 @@
   </sheetData>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D14">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D14" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4874,24 +4933,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="20"/>
-    <col min="3" max="3" width="68.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" customWidth="1"/>
-    <col min="7" max="7" width="42.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="20"/>
+    <col min="3" max="3" width="68.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="7" max="7" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="21" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="21" customFormat="1" ht="36">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
@@ -4914,7 +4973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="52" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="51">
       <c r="A2" s="7" t="s">
         <v>115</v>
       </c>
@@ -4929,7 +4988,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="38.25">
       <c r="A3" s="7" t="s">
         <v>117</v>
       </c>
@@ -4944,7 +5003,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="38.25">
       <c r="A4" s="7" t="s">
         <v>119</v>
       </c>
@@ -4959,7 +5018,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
         <v>121</v>
       </c>
@@ -4974,7 +5033,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="25.5">
       <c r="A6" s="7" t="s">
         <v>123</v>
       </c>
@@ -4989,7 +5048,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="25.5">
       <c r="A7" s="7" t="s">
         <v>125</v>
       </c>
@@ -5004,7 +5063,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="38.25">
       <c r="A8" s="7" t="s">
         <v>127</v>
       </c>
@@ -5019,7 +5078,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="25.5">
       <c r="A9" s="7" t="s">
         <v>129</v>
       </c>
@@ -5034,7 +5093,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="25.5">
       <c r="A10" s="7" t="s">
         <v>131</v>
       </c>
@@ -5049,7 +5108,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="52" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="51">
       <c r="A11" s="7" t="s">
         <v>133</v>
       </c>
@@ -5064,7 +5123,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="51">
       <c r="A12" s="7" t="s">
         <v>135</v>
       </c>
@@ -5079,7 +5138,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="25.5">
       <c r="A13" s="7" t="s">
         <v>137</v>
       </c>
@@ -5097,7 +5156,7 @@
   </sheetData>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D13">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D13" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5111,24 +5170,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="20"/>
-    <col min="3" max="3" width="60.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="20"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="21" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="21" customFormat="1" ht="36">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
@@ -5151,7 +5210,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="25.5">
       <c r="A2" s="7" t="s">
         <v>139</v>
       </c>
@@ -5166,7 +5225,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="25.5">
       <c r="A3" s="7" t="s">
         <v>141</v>
       </c>
@@ -5181,7 +5240,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>143</v>
       </c>
@@ -5196,7 +5255,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="25.5">
       <c r="A5" s="7" t="s">
         <v>145</v>
       </c>
@@ -5211,7 +5270,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="51">
       <c r="A6" s="7" t="s">
         <v>147</v>
       </c>
@@ -5226,7 +5285,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="25.5">
       <c r="A7" s="7" t="s">
         <v>149</v>
       </c>
@@ -5241,7 +5300,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="25.5">
       <c r="A8" s="7" t="s">
         <v>151</v>
       </c>
@@ -5256,7 +5315,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="38.25">
       <c r="A9" s="7" t="s">
         <v>153</v>
       </c>
@@ -5271,7 +5330,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="38.25">
       <c r="A10" s="7" t="s">
         <v>155</v>
       </c>
@@ -5286,7 +5345,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="52" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="63.75">
       <c r="A11" s="7" t="s">
         <v>157</v>
       </c>
@@ -5301,7 +5360,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="52" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="63.75">
       <c r="A12" s="7" t="s">
         <v>159</v>
       </c>
@@ -5316,7 +5375,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="51">
       <c r="A13" s="7" t="s">
         <v>161</v>
       </c>
@@ -5331,7 +5390,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="25.5">
       <c r="A14" s="7" t="s">
         <v>163</v>
       </c>
@@ -5346,7 +5405,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="65" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="63.75">
       <c r="A15" s="7" t="s">
         <v>165</v>
       </c>
@@ -5361,7 +5420,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="52" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="63.75">
       <c r="A16" s="7" t="s">
         <v>167</v>
       </c>
@@ -5376,7 +5435,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="53" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="51">
       <c r="A17" s="7" t="s">
         <v>169</v>
       </c>
@@ -5391,7 +5450,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="38.25">
       <c r="A18" s="7" t="s">
         <v>171</v>
       </c>
@@ -5406,7 +5465,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="25.5">
       <c r="A19" s="7" t="s">
         <v>173</v>
       </c>
@@ -5421,7 +5480,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="25.5">
       <c r="A20" s="7" t="s">
         <v>175</v>
       </c>
@@ -5436,7 +5495,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="38.25">
       <c r="A21" s="7" t="s">
         <v>177</v>
       </c>
@@ -5451,7 +5510,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="25.5">
       <c r="A22" s="7" t="s">
         <v>179</v>
       </c>
@@ -5469,7 +5528,7 @@
   </sheetData>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D22">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D22" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5483,23 +5542,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="20"/>
-    <col min="3" max="3" width="97.1640625" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="20"/>
+    <col min="3" max="3" width="97.140625" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="21" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="21" customFormat="1" ht="36">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
@@ -5522,7 +5581,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="25.5">
       <c r="A2" s="7" t="s">
         <v>181</v>
       </c>
@@ -5537,7 +5596,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="38.25">
       <c r="A3" s="7" t="s">
         <v>183</v>
       </c>
@@ -5552,7 +5611,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="25.5">
       <c r="A4" s="7" t="s">
         <v>185</v>
       </c>
@@ -5567,7 +5626,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
         <v>187</v>
       </c>
@@ -5582,7 +5641,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="25.5">
       <c r="A6" s="7" t="s">
         <v>189</v>
       </c>
@@ -5597,7 +5656,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="38.25">
       <c r="A7" s="7" t="s">
         <v>191</v>
       </c>
@@ -5612,7 +5671,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="25.5">
       <c r="A8" s="7" t="s">
         <v>192</v>
       </c>
@@ -5627,7 +5686,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="25.5">
       <c r="A9" s="7" t="s">
         <v>194</v>
       </c>
@@ -5642,7 +5701,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="7" t="s">
         <v>195</v>
       </c>
@@ -5657,7 +5716,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="25.5">
       <c r="A11" s="7" t="s">
         <v>197</v>
       </c>
@@ -5675,7 +5734,7 @@
   </sheetData>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D11">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D11" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5689,24 +5748,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="20"/>
-    <col min="3" max="3" width="80.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="20"/>
+    <col min="3" max="3" width="80.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="35.1640625" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="21" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="21" customFormat="1" ht="36">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
@@ -5729,7 +5788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="38.25">
       <c r="A2" s="7" t="s">
         <v>199</v>
       </c>
@@ -5744,7 +5803,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
         <v>201</v>
       </c>
@@ -5759,7 +5818,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="25.5">
       <c r="A4" s="7" t="s">
         <v>203</v>
       </c>
@@ -5774,7 +5833,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="25.5">
       <c r="A5" s="7" t="s">
         <v>205</v>
       </c>
@@ -5789,7 +5848,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="25.5">
       <c r="A6" s="7" t="s">
         <v>207</v>
       </c>
@@ -5804,7 +5863,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="7" t="s">
         <v>209</v>
       </c>
@@ -5819,7 +5878,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="51">
       <c r="A8" s="7" t="s">
         <v>211</v>
       </c>
@@ -5834,7 +5893,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="25.5">
       <c r="A9" s="7" t="s">
         <v>213</v>
       </c>
@@ -5849,7 +5908,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="7" t="s">
         <v>215</v>
       </c>
@@ -5864,7 +5923,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="7" t="s">
         <v>217</v>
       </c>
@@ -5879,7 +5938,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="25.5">
       <c r="A12" s="7" t="s">
         <v>219</v>
       </c>
@@ -5894,7 +5953,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="25.5">
       <c r="A13" s="7" t="s">
         <v>221</v>
       </c>
@@ -5909,7 +5968,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="7" t="s">
         <v>370</v>
       </c>
@@ -5927,7 +5986,7 @@
   </sheetData>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D14">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D14" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5941,23 +6000,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="20"/>
+    <col min="2" max="2" width="8.85546875" style="20"/>
     <col min="3" max="3" width="93" customWidth="1"/>
-    <col min="5" max="5" width="34.5" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="30.83203125" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="21" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="21" customFormat="1" ht="36">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
@@ -5980,7 +6039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="25.5">
       <c r="A2" s="7" t="s">
         <v>223</v>
       </c>
@@ -5995,7 +6054,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="38.25">
       <c r="A3" s="7" t="s">
         <v>225</v>
       </c>
@@ -6010,7 +6069,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="25.5">
       <c r="A4" s="7" t="s">
         <v>227</v>
       </c>
@@ -6025,7 +6084,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="65" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="76.5">
       <c r="A5" s="7" t="s">
         <v>229</v>
       </c>
@@ -6040,7 +6099,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="25.5">
       <c r="A6" s="7" t="s">
         <v>231</v>
       </c>
@@ -6055,7 +6114,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="25.5">
       <c r="A7" s="7" t="s">
         <v>233</v>
       </c>
@@ -6070,7 +6129,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="25.5">
       <c r="A8" s="7" t="s">
         <v>235</v>
       </c>
@@ -6085,7 +6144,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="25.5">
       <c r="A9" s="7" t="s">
         <v>237</v>
       </c>
@@ -6100,7 +6159,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="25.5">
       <c r="A10" s="7" t="s">
         <v>239</v>
       </c>
@@ -6115,7 +6174,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="25.5">
       <c r="A11" s="7" t="s">
         <v>241</v>
       </c>
@@ -6130,7 +6189,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="25.5">
       <c r="A12" s="7" t="s">
         <v>243</v>
       </c>
@@ -6148,7 +6207,7 @@
   </sheetData>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D12">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D2:D12" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
